--- a/Plan de test 3.xlsx
+++ b/Plan de test 3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jeux-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nouveau dossier\Pr_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6989BE5-86AB-4F9B-B5EE-C3B45AFB7FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BA67CF-A9BD-435A-91CD-CD217EFC3629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{903B7FBE-E3A4-41FB-9743-F459AAEA9985}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>pland de test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>resultat attendu</t>
   </si>
@@ -47,85 +44,94 @@
     <t>resultat</t>
   </si>
   <si>
-    <t>1- Ajouter les mots dans le tableau</t>
-  </si>
-  <si>
-    <t>toute la liste de word apparait dans letableau</t>
-  </si>
-  <si>
-    <t>la liste de word apparaît dans le tableau</t>
-  </si>
-  <si>
-    <t>2- Remplacer une lettre par un espace vide</t>
-  </si>
-  <si>
-    <t>entrer une lettre et la faire remplacer par une espace vide</t>
-  </si>
-  <si>
-    <t>le code ne marche pas du tout, il faut recommencer</t>
-  </si>
-  <si>
-    <t>3- Saisir un mot à retirer</t>
-  </si>
-  <si>
-    <t>entrer un mot et la retirer de la liste</t>
-  </si>
-  <si>
     <t>ça marche. Ok</t>
   </si>
   <si>
-    <t>4- Remplacer une ou plusieurs lettres par un mot</t>
-  </si>
-  <si>
-    <t>entrer une lettre et la faire remplacer par une autre lettre. La lettre de remplacement doit être espacée.</t>
-  </si>
-  <si>
-    <t>l'espace vide de marche pas</t>
-  </si>
-  <si>
-    <t>5- Saisir un mot à remplacer par un autre</t>
-  </si>
-  <si>
-    <t>entrer un mot à remplacer et entrer un autre pour le remplacement</t>
-  </si>
-  <si>
-    <t>tous les mots après le mot à remplacer se remplacent aussi. À refaire</t>
-  </si>
-  <si>
-    <t>6- Calculer le nombre fois qu'une lettre apparait</t>
-  </si>
-  <si>
-    <t>entrer la lettre et faire le calcul puis afficher.</t>
-  </si>
-  <si>
     <t>ça a bien marché.</t>
   </si>
   <si>
-    <t>7- Additionner le nombre de lettres</t>
-  </si>
-  <si>
-    <t>calculer le nombre de tous les lettres dans la liste.</t>
-  </si>
-  <si>
     <t xml:space="preserve">c'est OK. </t>
   </si>
   <si>
-    <t>8- Afficher tableau</t>
-  </si>
-  <si>
-    <t>montrer tout le tableau</t>
-  </si>
-  <si>
     <t>le tableau est bien là.</t>
   </si>
   <si>
-    <t>9- Quitter</t>
-  </si>
-  <si>
-    <t>L’application s’arrête quand l’utilisateur appuie sur 9.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ça marche. </t>
+  </si>
+  <si>
+    <t>Afficher le menu</t>
+  </si>
+  <si>
+    <t>les 2 jeux avec la partie quitter apparait hrizontalement sur le menu</t>
+  </si>
+  <si>
+    <t>choisir roche/papier/ciseau ou devinette</t>
+  </si>
+  <si>
+    <t>si je rentre 1, c'est roche/papier/ciseau et 2 devinette</t>
+  </si>
+  <si>
+    <t>c'est verticale, à refaire</t>
+  </si>
+  <si>
+    <t>plan de test</t>
+  </si>
+  <si>
+    <t>l'ordinateur choisi au hasard un element</t>
+  </si>
+  <si>
+    <t>il choisi un élément sans l'afficher</t>
+  </si>
+  <si>
+    <t>élément affiché, à refaire</t>
+  </si>
+  <si>
+    <t>le joueur entre son élément à lui et ne peut entrer que roche/papier/ciseau</t>
+  </si>
+  <si>
+    <t>l'élément du joueur apparait sur l'écran</t>
+  </si>
+  <si>
+    <t>ok, ça fonctionne</t>
+  </si>
+  <si>
+    <t>comparer les 2 éléments</t>
+  </si>
+  <si>
+    <t>ciseau gagne sur papier, papier sur roche et roche sur ciseau</t>
+  </si>
+  <si>
+    <t>roche gagne sur papier, pas correct.</t>
+  </si>
+  <si>
+    <t>l'ordinateur demande si le joueur veu faire une autre partie</t>
+  </si>
+  <si>
+    <t>entrer oui (O) ou non (N), autre réponse ne peut pas fonctionné</t>
+  </si>
+  <si>
+    <t>la machine  choisi les mots qu'il veut</t>
+  </si>
+  <si>
+    <t>choisir au hasard dans la liste banane, poire, pomme, cerise, mangue, figue, tangerine, fraise, framboise, bleuet</t>
+  </si>
+  <si>
+    <t>transformer des lettres au hasard en espace vide</t>
+  </si>
+  <si>
+    <t>quelque lettre su mot choisi doivent-être remplacées par un espace vide.</t>
+  </si>
+  <si>
+    <t>le joueur peut  entrer 3 reponses pour chercher le mot</t>
+  </si>
+  <si>
+    <t>recommencer 3 fois s'il n'arrive pas à trouver le mot, sinon, lui dire bravo</t>
+  </si>
+  <si>
+    <t>si le joueur echoue, retourner au menu principal</t>
+  </si>
+  <si>
+    <t>après avoir afficher le mot, retourner au menu principal</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,117 +517,121 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
   </sheetData>

--- a/Plan de test 3.xlsx
+++ b/Plan de test 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nouveau dossier\Pr_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BA67CF-A9BD-435A-91CD-CD217EFC3629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F16E038-D176-4B29-9AC9-D3885B1C6336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{903B7FBE-E3A4-41FB-9743-F459AAEA9985}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>resultat attendu</t>
   </si>
@@ -53,12 +53,6 @@
     <t xml:space="preserve">c'est OK. </t>
   </si>
   <si>
-    <t>le tableau est bien là.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ça marche. </t>
-  </si>
-  <si>
     <t>Afficher le menu</t>
   </si>
   <si>
@@ -132,6 +126,15 @@
   </si>
   <si>
     <t>après avoir afficher le mot, retourner au menu principal</t>
+  </si>
+  <si>
+    <t>les espaces vides sont transformées un à un pas ensemble</t>
+  </si>
+  <si>
+    <t>il peut entrer jusqu'à n-ème répponse, à refaire</t>
+  </si>
+  <si>
+    <t>le mot s'affiche même si le joueur n'a pas échoué. À refaire</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,9 +518,9 @@
     <col min="3" max="3" width="50.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -528,21 +531,21 @@
     </row>
     <row r="2" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -550,43 +553,43 @@
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -594,10 +597,10 @@
     </row>
     <row r="8" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -605,34 +608,36 @@
     </row>
     <row r="9" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
